--- a/slow_chargers.xlsx
+++ b/slow_chargers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e269ce536976a1eb/GoodNotes/S3 - BEFD/Final Project/Potential Projects/Lithium/Datasets/Mario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{865B15BB-E73F-4267-8FFF-7C9D381045C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AB25583-ED15-4FB3-8424-3C8AADF27853}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:40009_{865B15BB-E73F-4267-8FFF-7C9D381045C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E63EEE31-1581-4683-92B7-71CCD3ECF298}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,13 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Other countries</t>
+    <t>United_States</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Other_countries</t>
   </si>
 </sst>
 </file>
@@ -577,6 +577,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,7 +883,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -889,7 +893,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -898,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
